--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_95__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_42/metrics/Trial_95__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6076,10 +6076,10 @@
                   <c:v>350.471435546875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>357.2076721191406</c:v>
+                  <c:v>357.2076416015625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>330.9233703613281</c:v>
+                  <c:v>330.92333984375</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>349.2628479003906</c:v>
@@ -6115,7 +6115,7 @@
                   <c:v>363.5492553710938</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>342.9427795410156</c:v>
+                  <c:v>342.9428100585938</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>373.5762329101562</c:v>
@@ -6157,7 +6157,7 @@
                   <c:v>352.6222534179688</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>348.9538269042969</c:v>
+                  <c:v>348.953857421875</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>325.050048828125</c:v>
@@ -6187,7 +6187,7 @@
                   <c:v>355.8751525878906</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>352.22216796875</c:v>
+                  <c:v>352.2221374511719</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>348.6290283203125</c:v>
@@ -6202,7 +6202,7 @@
                   <c:v>345.6422424316406</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>328.27197265625</c:v>
+                  <c:v>328.2720031738281</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>358.1490783691406</c:v>
@@ -6238,13 +6238,13 @@
                   <c:v>361.9339904785156</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>362.7304382324219</c:v>
+                  <c:v>362.73046875</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>353.1533203125</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>337.2080688476562</c:v>
+                  <c:v>337.2080993652344</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>342.5469970703125</c:v>
@@ -6262,7 +6262,7 @@
                   <c:v>353.1564636230469</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>376.8694152832031</c:v>
+                  <c:v>376.8694458007812</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>357.2956848144531</c:v>
@@ -6289,7 +6289,7 @@
                   <c:v>367.1902770996094</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>362.6488647460938</c:v>
+                  <c:v>362.6488952636719</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>354.0277404785156</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>350.0426330566406</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>349.2929077148438</c:v>
+                  <c:v>349.2928771972656</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>360.4560241699219</c:v>
@@ -6319,7 +6319,7 @@
                   <c:v>361.4044189453125</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>364.450439453125</c:v>
+                  <c:v>364.4504699707031</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>352.3348083496094</c:v>
@@ -6346,7 +6346,7 @@
                   <c:v>354.8539428710938</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>336.4520568847656</c:v>
+                  <c:v>336.4520874023438</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>365.0460205078125</c:v>
@@ -6358,7 +6358,7 @@
                   <c:v>347.637939453125</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>365.5960388183594</c:v>
+                  <c:v>365.5960083007812</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>356.3747253417969</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7087,8 +7099,14 @@
       <c r="H3">
         <v>378</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>378</v>
+      </c>
+      <c r="S3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>366.2393798828125</v>
       </c>
       <c r="G4">
+        <v>378</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>378</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7139,8 +7163,14 @@
       <c r="H5">
         <v>378</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>378</v>
+      </c>
+      <c r="S5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>370.3626403808594</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>378</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7191,8 +7227,14 @@
       <c r="H7">
         <v>378</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>378</v>
+      </c>
+      <c r="S7">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7209,10 +7251,10 @@
         <v>364.58</v>
       </c>
       <c r="F8">
-        <v>357.2076721191406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>357.2076416015625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7229,10 +7271,10 @@
         <v>363.322</v>
       </c>
       <c r="F9">
-        <v>330.9233703613281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>330.92333984375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>349.2628479003906</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>346.8060302734375</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7292,7 +7334,7 @@
         <v>345.7584533691406</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>359.9861145019531</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>355.1094055175781</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>368.7343139648438</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7469,7 +7511,7 @@
         <v>357.963</v>
       </c>
       <c r="F21">
-        <v>342.9427795410156</v>
+        <v>342.9428100585938</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7749,7 +7791,7 @@
         <v>360.164</v>
       </c>
       <c r="F35">
-        <v>348.9538269042969</v>
+        <v>348.953857421875</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7949,7 +7991,7 @@
         <v>356.38</v>
       </c>
       <c r="F45">
-        <v>352.22216796875</v>
+        <v>352.2221374511719</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8049,7 +8091,7 @@
         <v>358.571</v>
       </c>
       <c r="F50">
-        <v>328.27197265625</v>
+        <v>328.2720031738281</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8289,7 +8331,7 @@
         <v>341.812</v>
       </c>
       <c r="F62">
-        <v>362.7304382324219</v>
+        <v>362.73046875</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8329,7 +8371,7 @@
         <v>339.21</v>
       </c>
       <c r="F64">
-        <v>337.2080688476562</v>
+        <v>337.2080993652344</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8449,7 +8491,7 @@
         <v>361.499</v>
       </c>
       <c r="F70">
-        <v>376.8694152832031</v>
+        <v>376.8694458007812</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8629,7 +8671,7 @@
         <v>358.276</v>
       </c>
       <c r="F79">
-        <v>362.6488647460938</v>
+        <v>362.6488952636719</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8689,7 +8731,7 @@
         <v>337.046</v>
       </c>
       <c r="F82">
-        <v>349.2929077148438</v>
+        <v>349.2928771972656</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8829,7 +8871,7 @@
         <v>359.87</v>
       </c>
       <c r="F89">
-        <v>364.450439453125</v>
+        <v>364.4504699707031</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9009,7 +9051,7 @@
         <v>338.575</v>
       </c>
       <c r="F98">
-        <v>336.4520568847656</v>
+        <v>336.4520874023438</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9089,7 +9131,7 @@
         <v>358.659</v>
       </c>
       <c r="F102">
-        <v>365.5960388183594</v>
+        <v>365.5960083007812</v>
       </c>
     </row>
     <row r="103" spans="1:6">
